--- a/artfynd/A 55469-2018.xlsx
+++ b/artfynd/A 55469-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64987400</v>
+        <v>67978160</v>
       </c>
       <c r="B2" t="n">
-        <v>89338</v>
+        <v>89317</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>112</v>
+        <v>3242</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>622582.8630347433</v>
+        <v>622342.7052900216</v>
       </c>
       <c r="R2" t="n">
-        <v>7259002.777051079</v>
+        <v>7259347.332542222</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2014-08-24</t>
+          <t>2017-10-05</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2014-08-24</t>
+          <t>2017-10-05</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -792,17 +792,17 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Patrik Nygren, per-erik mukka</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67978160</v>
+        <v>67978157</v>
       </c>
       <c r="B3" t="n">
-        <v>89317</v>
+        <v>89633</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -811,25 +811,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3242</v>
+        <v>65</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>622342.7052900216</v>
+        <v>622438.9085855351</v>
       </c>
       <c r="R3" t="n">
-        <v>7259347.332542222</v>
+        <v>7259490.537392656</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -918,10 +918,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67978157</v>
+        <v>69884788</v>
       </c>
       <c r="B4" t="n">
-        <v>89633</v>
+        <v>89317</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,47 +930,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>3242</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Abmoberget, Ly lm</t>
+          <t>Ned Saxnäs, Ly lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>622438.9085855351</v>
+        <v>622346.1763020725</v>
       </c>
       <c r="R4" t="n">
-        <v>7259490.537392656</v>
+        <v>7259344.144440647</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -994,7 +988,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2017-10-05</t>
+          <t>2017-10-04</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1004,7 +998,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2017-10-05</t>
+          <t>2017-10-04</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1012,35 +1006,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Patrik Nygren, per-erik mukka</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>69884788</v>
+        <v>69886350</v>
       </c>
       <c r="B5" t="n">
-        <v>89317</v>
+        <v>89633</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,25 +1047,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3242</v>
+        <v>65</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1077,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>622346.1763020725</v>
+        <v>622435.9783548811</v>
       </c>
       <c r="R5" t="n">
-        <v>7259344.144440647</v>
+        <v>7259480.831004807</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1154,10 +1152,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69886350</v>
+        <v>64987400</v>
       </c>
       <c r="B6" t="n">
-        <v>89633</v>
+        <v>89338</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1166,41 +1164,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Ned Saxnäs, Ly lm</t>
+          <t>Abmoberget, Ly lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>622435.9783548811</v>
+        <v>622582.8630347433</v>
       </c>
       <c r="R6" t="n">
-        <v>7259480.831004807</v>
+        <v>7259002.777051079</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1224,7 +1228,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2017-10-04</t>
+          <t>2014-08-24</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1234,7 +1238,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2017-10-04</t>
+          <t>2014-08-24</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1242,29 +1246,25 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>

--- a/artfynd/A 55469-2018.xlsx
+++ b/artfynd/A 55469-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67978160</v>
+        <v>64987400</v>
       </c>
       <c r="B2" t="n">
-        <v>89317</v>
+        <v>89338</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3242</v>
+        <v>112</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>622342.7052900216</v>
+        <v>622582.8630347433</v>
       </c>
       <c r="R2" t="n">
-        <v>7259347.332542222</v>
+        <v>7259002.777051079</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2017-10-05</t>
+          <t>2014-08-24</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2017-10-05</t>
+          <t>2014-08-24</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -792,17 +792,17 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Patrik Nygren, per-erik mukka</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67978157</v>
+        <v>67978160</v>
       </c>
       <c r="B3" t="n">
-        <v>89633</v>
+        <v>89317</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -811,25 +811,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>3242</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>622438.9085855351</v>
+        <v>622342.7052900216</v>
       </c>
       <c r="R3" t="n">
-        <v>7259490.537392656</v>
+        <v>7259347.332542222</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -918,10 +918,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69884788</v>
+        <v>67978157</v>
       </c>
       <c r="B4" t="n">
-        <v>89317</v>
+        <v>89633</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,41 +930,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3242</v>
+        <v>65</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Ned Saxnäs, Ly lm</t>
+          <t>Abmoberget, Ly lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>622346.1763020725</v>
+        <v>622438.9085855351</v>
       </c>
       <c r="R4" t="n">
-        <v>7259344.144440647</v>
+        <v>7259490.537392656</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -988,7 +994,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2017-10-04</t>
+          <t>2017-10-05</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -998,7 +1004,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2017-10-04</t>
+          <t>2017-10-05</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1006,39 +1012,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Patrik Nygren, per-erik mukka</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>69886350</v>
+        <v>69884788</v>
       </c>
       <c r="B5" t="n">
-        <v>89633</v>
+        <v>89317</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,25 +1049,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>65</v>
+        <v>3242</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1075,10 +1077,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>622435.9783548811</v>
+        <v>622346.1763020725</v>
       </c>
       <c r="R5" t="n">
-        <v>7259480.831004807</v>
+        <v>7259344.144440647</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1152,10 +1154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>64987400</v>
+        <v>69886350</v>
       </c>
       <c r="B6" t="n">
-        <v>89338</v>
+        <v>89633</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,47 +1166,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Abmoberget, Ly lm</t>
+          <t>Ned Saxnäs, Ly lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>622582.8630347433</v>
+        <v>622435.9783548811</v>
       </c>
       <c r="R6" t="n">
-        <v>7259002.777051079</v>
+        <v>7259480.831004807</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1228,7 +1224,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2014-08-24</t>
+          <t>2017-10-04</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1238,7 +1234,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2014-08-24</t>
+          <t>2017-10-04</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1246,25 +1242,29 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
